--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="11700" windowHeight="6525"/>
+    <workbookView xWindow="9150" yWindow="6090" windowWidth="11700" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meal Card:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,10 +101,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +121,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,11 +173,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="7" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,18 +479,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -494,49 +541,52 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="3">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4">
         <v>40680</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>40681</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>40682</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>40683</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>40684</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>40685</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>40686</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>40687</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>40688</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>40689</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>40690</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="4">
         <v>40691</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="4">
         <v>40692</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="4">
         <v>40693</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="4">
         <v>40694</v>
       </c>
     </row>
@@ -544,35 +594,139 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>66</v>
       </c>
+      <c r="C4" s="3">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3">
+        <v>68</v>
+      </c>
+      <c r="E4" s="5">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>73</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>14</v>
       </c>
     </row>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -13,8 +13,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zy</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>与</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jack</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>重复打车</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>华景新城</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-&gt;</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>岑村</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,7 +187,7 @@
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +210,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +245,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -163,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +287,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,15 +588,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -606,6 +716,25 @@
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -628,7 +757,9 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>53</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -662,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>18</v>
       </c>
       <c r="D6" s="3">
@@ -670,9 +801,15 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="3">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>12</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -687,13 +824,20 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -702,15 +846,16 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>25</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -722,11 +867,66 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>100</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -734,5 +934,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,10 @@
   </si>
   <si>
     <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +595,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -730,7 +734,9 @@
       <c r="K3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -760,7 +766,9 @@
       <c r="K4" s="3">
         <v>53</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>65</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -892,7 +900,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="6090" windowWidth="11700" windowHeight="6525"/>
+    <workbookView xWindow="9150" yWindow="6090" windowWidth="11700" windowHeight="6525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
+    <sheet name="June" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +181,102 @@
   </si>
   <si>
     <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油票1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油票.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油票2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM/PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taxi Tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早上和Ring一起到棠中由Ring先垫付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +288,7 @@
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +325,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -270,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +402,15 @@
     </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -739,8 +853,12 @@
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -767,7 +885,7 @@
         <v>53</v>
       </c>
       <c r="L4" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -849,7 +967,9 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>2</v>
+      </c>
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16">
@@ -870,7 +990,9 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>25</v>
+      </c>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
@@ -884,10 +1006,14 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>25</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <v>2</v>
+      </c>
       <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16">
@@ -903,7 +1029,9 @@
       <c r="K10" s="3">
         <v>2</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -935,6 +1063,194 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>62</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>66</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>71</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>51</v>
+      </c>
+      <c r="N16">
+        <v>65</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <f>B15*B16</f>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:P17" si="0">C15*C16</f>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>14</v>
@@ -946,4 +1262,140 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="34.375" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="9">
+        <v>40695</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9">
+        <v>40695</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9">
+        <v>40695</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9">
+        <v>40695</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="G6" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -10,6 +10,9 @@
     <sheet name="May" sheetId="1" r:id="rId1"/>
     <sheet name="June" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -97,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1266,10 +1269,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1382,18 +1388,92 @@
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
+      <c r="A6" s="9">
+        <v>40696</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
       <c r="G6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
+      <c r="A7" s="9">
+        <v>40696</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
       <c r="G7" s="10" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9">
+        <v>40696</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9">
+        <v>40696</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,14 @@
   </si>
   <si>
     <t>早上和Ring一起到棠中由Ring先垫付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于机打日期错为(2011-06-05)已填报销单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1269,13 +1277,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1284,9 +1292,10 @@
     <col min="2" max="3" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="34.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1308,8 +1317,11 @@
       <c r="G1" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="9">
         <v>40695</v>
       </c>
@@ -1325,11 +1337,17 @@
       <c r="E2" t="s">
         <v>45</v>
       </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
       <c r="G2" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="9">
         <v>40695</v>
       </c>
@@ -1345,11 +1363,17 @@
       <c r="E3" t="s">
         <v>45</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
       <c r="G3" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="9">
         <v>40695</v>
       </c>
@@ -1369,7 +1393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="9">
         <v>40695</v>
       </c>
@@ -1392,7 +1416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="9">
         <v>40696</v>
       </c>
@@ -1408,11 +1432,14 @@
       <c r="E6" t="s">
         <v>45</v>
       </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
       <c r="G6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="9">
         <v>40696</v>
       </c>
@@ -1428,11 +1455,14 @@
       <c r="E7" t="s">
         <v>45</v>
       </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
       <c r="G7" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="9">
         <v>40696</v>
       </c>
@@ -1452,7 +1482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="9">
         <v>40696</v>
       </c>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>由于机打日期错为(2011-06-05)已填报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payback</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,13 +1289,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1502,6 +1514,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9">
+        <v>40701</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1289,20 +1289,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1534,6 +1534,166 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9">
+        <v>40701</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9">
+        <v>40701</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9">
+        <v>40702</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9">
+        <v>40702</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9">
+        <v>40702</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9">
+        <v>40702</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9">
+        <v>40703</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9">
+        <v>40703</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>由于机打日期错为(2011-06-05)已填报销单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +296,29 @@
   </si>
   <si>
     <t>payback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于机打日期错为(2011-06-05)已填报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已填报销单</t>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐Sam的车过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +452,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,7 +757,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="P17" sqref="P17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1289,25 +1314,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1330,10 +1355,10 @@
         <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="9">
         <v>40695</v>
       </c>
@@ -1356,10 +1381,10 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="9">
         <v>40695</v>
       </c>
@@ -1382,10 +1407,16 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="9">
         <v>40695</v>
       </c>
@@ -1404,8 +1435,11 @@
       <c r="F4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="9">
         <v>40695</v>
       </c>
@@ -1427,8 +1461,11 @@
       <c r="G5" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="9">
         <v>40696</v>
       </c>
@@ -1450,8 +1487,11 @@
       <c r="G6" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="9">
         <v>40696</v>
       </c>
@@ -1473,8 +1513,11 @@
       <c r="G7" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="9">
         <v>40696</v>
       </c>
@@ -1493,8 +1536,11 @@
       <c r="F8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="9">
         <v>40696</v>
       </c>
@@ -1513,28 +1559,34 @@
       <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="9">
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12">
         <v>40701</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10">
+      <c r="F10" s="13">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="9">
         <v>40701</v>
       </c>
@@ -1553,8 +1605,11 @@
       <c r="F11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="9">
         <v>40701</v>
       </c>
@@ -1573,8 +1628,11 @@
       <c r="F12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="9">
         <v>40702</v>
       </c>
@@ -1593,8 +1651,11 @@
       <c r="F13">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="9">
         <v>40702</v>
       </c>
@@ -1613,8 +1674,11 @@
       <c r="F14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="9">
         <v>40702</v>
       </c>
@@ -1633,8 +1697,11 @@
       <c r="F15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="9">
         <v>40702</v>
       </c>
@@ -1653,8 +1720,11 @@
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="9">
         <v>40703</v>
       </c>
@@ -1673,8 +1743,11 @@
       <c r="F17">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="9">
         <v>40703</v>
       </c>
@@ -1692,6 +1765,66 @@
       </c>
       <c r="F18">
         <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18">
+        <v>212</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="9">
+        <v>40708</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="9">
+        <v>40708</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="9">
+        <v>40709</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1314,13 +1318,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1827,6 +1831,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="9">
+        <v>40714</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
     <sheet name="June" sheetId="2" r:id="rId2"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
@@ -100,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="82">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,30 +300,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已填报销单</t>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐Sam的车过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack,Kanie,Simon,Yun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack,Kanie,Yun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack,Yun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棠安路-showa</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa-棠安路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤A103XM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
     <t>由于机打日期错为(2011-06-05)已填报销单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已填报销单</t>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐Sam的车过来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +424,7 @@
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +470,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +509,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -421,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -463,6 +572,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,7 +882,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:P18"/>
+      <selection activeCell="C17" sqref="C17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1318,19 +1439,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.875" bestFit="1" customWidth="1"/>
@@ -1359,7 +1481,7 @@
         <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1385,7 +1507,13 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>81</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1417,7 +1545,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1440,7 +1568,13 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I4">
+        <v>212</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1466,7 +1600,13 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I5">
+        <v>212</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1492,7 +1632,13 @@
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I6">
+        <v>212</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1518,7 +1664,13 @@
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I7">
+        <v>212</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1541,7 +1693,13 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I8">
+        <v>212</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1564,7 +1722,13 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <v>212</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1587,7 +1751,7 @@
         <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1610,7 +1774,13 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I11">
+        <v>212</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1633,7 +1803,13 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I12">
+        <v>212</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1656,7 +1832,13 @@
         <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I13">
+        <v>212</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1679,7 +1861,13 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I14">
+        <v>212</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1702,7 +1890,13 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I15">
+        <v>212</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1725,7 +1919,13 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>212</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1748,7 +1948,13 @@
         <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="I17">
+        <v>212</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1771,13 +1977,13 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18">
         <v>212</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1825,10 +2031,10 @@
         <v>40709</v>
       </c>
       <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
         <v>54</v>
-      </c>
-      <c r="H21" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1836,7 +2042,99 @@
         <v>40714</v>
       </c>
       <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="9">
+        <v>40715</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="9">
+        <v>40715</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="9">
+        <v>40715</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="9">
+        <v>40716</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1845,4 +2143,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15">
+        <v>40714</v>
+      </c>
+      <c r="C1" s="15">
+        <v>40715</v>
+      </c>
+      <c r="D1" s="15">
+        <v>40716</v>
+      </c>
+      <c r="E1" s="15">
+        <v>40717</v>
+      </c>
+      <c r="F1" s="15">
+        <v>40718</v>
+      </c>
+      <c r="G1" s="16">
+        <v>40719</v>
+      </c>
+      <c r="H1" s="16">
+        <v>40720</v>
+      </c>
+      <c r="I1" s="15">
+        <v>40721</v>
+      </c>
+      <c r="J1" s="15">
+        <v>40722</v>
+      </c>
+      <c r="K1" s="15">
+        <v>40723</v>
+      </c>
+      <c r="L1" s="15">
+        <v>40724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1"/>
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="6090" windowWidth="11700" windowHeight="6525" activeTab="1"/>
+    <workbookView xWindow="9150" yWindow="6090" windowWidth="11700" windowHeight="6525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="82">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,10 +344,6 @@
   </si>
   <si>
     <t>showa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,6 +409,10 @@
   </si>
   <si>
     <t>由于机打日期错为(2011-06-05)已填报销单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1439,13 +1439,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1507,7 +1507,7 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>20</v>
@@ -2054,7 +2054,7 @@
         <v>61</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2108,13 +2108,13 @@
         <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2125,16 +2125,56 @@
         <v>62</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>64</v>
       </c>
-      <c r="I26" t="s">
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="9">
+        <v>40716</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="9">
+        <v>40717</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2149,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2194,51 +2234,53 @@
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -2249,15 +2291,17 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="17"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="6090" windowWidth="11700" windowHeight="6525" activeTab="2"/>
+    <workbookView xWindow="9150" yWindow="6090" windowWidth="11700" windowHeight="6525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="82">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1439,13 +1439,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2177,6 +2177,46 @@
         <v>64</v>
       </c>
     </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="9">
+        <v>40717</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="9">
+        <v>40718</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2189,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2281,7 +2321,9 @@
       <c r="E3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="1"/>
@@ -2302,7 +2344,9 @@
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="84">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,6 +413,14 @@
   </si>
   <si>
     <t>AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤A103XM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王林粤A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,10 +1450,10 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29:I30"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2048,7 +2056,7 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
         <v>61</v>
@@ -2108,7 +2116,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="84">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1447,13 +1447,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2223,6 +2223,14 @@
       </c>
       <c r="I30" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="9">
+        <v>40721</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="90">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,30 @@
   </si>
   <si>
     <t>王林粤A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from qingxi to showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>King</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +547,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -538,7 +568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,6 +621,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1447,13 +1480,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2013,6 +2046,15 @@
       <c r="F19">
         <v>65</v>
       </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19">
+        <v>120</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9">
@@ -2033,6 +2075,15 @@
       <c r="F20">
         <v>2</v>
       </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20">
+        <v>120</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9">
@@ -2084,6 +2135,15 @@
       <c r="F23">
         <v>51</v>
       </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23">
+        <v>120</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="9">
@@ -2104,6 +2164,15 @@
       <c r="F24">
         <v>2</v>
       </c>
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24">
+        <v>120</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9">
@@ -2230,6 +2299,31 @@
         <v>40721</v>
       </c>
       <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="9">
+        <v>40723</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9">
+        <v>40724</v>
+      </c>
+      <c r="B33" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2246,7 +2340,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2342,9 +2436,15 @@
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
@@ -2366,9 +2466,15 @@
       <c r="F4" s="1"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
   </sheetData>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="6090" windowWidth="11700" windowHeight="6525" activeTab="1"/>
+    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="91">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,6 +441,10 @@
   </si>
   <si>
     <t>lambert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,7 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,6 +628,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1480,13 +1487,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2319,12 +2326,44 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:6">
       <c r="A33" s="9">
         <v>40724</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9">
+        <v>40724</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +2379,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2371,7 +2410,7 @@
       <c r="I1" s="15">
         <v>40721</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="19">
         <v>40722</v>
       </c>
       <c r="K1" s="15">
@@ -2407,7 +2446,7 @@
       <c r="I2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="19" t="s">
         <v>72</v>
       </c>
       <c r="K2" s="15" t="s">
@@ -2440,12 +2479,14 @@
         <v>88</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
@@ -2470,7 +2511,7 @@
         <v>88</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>87</v>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="1"/>
+    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
     <sheet name="June" sheetId="2" r:id="rId2"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId3"/>
+    <sheet name="July" sheetId="4" r:id="rId3"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +450,10 @@
   </si>
   <si>
     <t>Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>am</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1489,11 +1494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:B34"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2326,7 +2331,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:10">
       <c r="A33" s="9">
         <v>40724</v>
       </c>
@@ -2345,8 +2350,14 @@
       <c r="F33">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="I33">
+        <v>65</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="9">
         <v>40724</v>
       </c>
@@ -2364,6 +2375,12 @@
       </c>
       <c r="F34">
         <v>2</v>
+      </c>
+      <c r="I34">
+        <v>65</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2375,6 +2392,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="9">
+        <v>40728</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="95">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,7 +453,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>am</t>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待报销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1495,10 +1507,10 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2393,25 +2405,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="9">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9">
         <v>40728</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9">
+        <v>40729</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9">
+        <v>40729</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="2"/>
+    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
     <sheet name="June" sheetId="2" r:id="rId2"/>
     <sheet name="July" sheetId="4" r:id="rId3"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId4"/>
+    <sheet name="CarLog11.7" sheetId="5" r:id="rId4"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
@@ -101,8 +103,45 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当日同车上下班的同事
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="123">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +505,118 @@
   </si>
   <si>
     <t>待报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.报销人：因多名同事前往，请确定报销人。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.同行同事栏：分上下班填写，写上同车的同事</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.报销金额如实填写，若乘坐粤A103XM，上班车资为50元，下班80元；若乘坐同事车辆前往，无车资产生无须填写。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.此表为昭和车资的报销明细表。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写方法：</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销人</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>同行同事</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘坐车辆</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销金额</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>昭和坐车统计情况</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lambert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J,Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,K,J,Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.S=Simon,K=Kaine,J=Jack,Y=Yun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J,Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +628,7 @@
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,8 +687,84 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,8 +801,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -583,13 +822,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,9 +906,80 @@
     <xf numFmtId="58" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规_Sheet7" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1510,7 +1837,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6:F7"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2405,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2499,6 +2826,20 @@
         <v>94</v>
       </c>
     </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9">
+        <v>40730</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2507,29 +2848,864 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:AF22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="33" customWidth="1"/>
+    <col min="2" max="5" width="13.875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="23" customWidth="1"/>
+    <col min="7" max="32" width="13.875" style="23" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="22.5">
+      <c r="A1" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="46"/>
+      <c r="B2" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="47"/>
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>3</v>
+      </c>
+      <c r="E3" s="31">
+        <v>4</v>
+      </c>
+      <c r="F3" s="31">
+        <v>5</v>
+      </c>
+      <c r="G3" s="31">
+        <v>6</v>
+      </c>
+      <c r="H3" s="31">
+        <v>7</v>
+      </c>
+      <c r="I3" s="31">
+        <v>8</v>
+      </c>
+      <c r="J3" s="31">
+        <v>9</v>
+      </c>
+      <c r="K3" s="31">
+        <v>10</v>
+      </c>
+      <c r="L3" s="31">
+        <v>11</v>
+      </c>
+      <c r="M3" s="31">
+        <v>12</v>
+      </c>
+      <c r="N3" s="31">
+        <v>13</v>
+      </c>
+      <c r="O3" s="31">
+        <v>14</v>
+      </c>
+      <c r="P3" s="31">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="31">
+        <v>16</v>
+      </c>
+      <c r="R3" s="31">
+        <v>17</v>
+      </c>
+      <c r="S3" s="31">
+        <v>18</v>
+      </c>
+      <c r="T3" s="31">
+        <v>19</v>
+      </c>
+      <c r="U3" s="31">
+        <v>20</v>
+      </c>
+      <c r="V3" s="31">
+        <v>21</v>
+      </c>
+      <c r="W3" s="31">
+        <v>22</v>
+      </c>
+      <c r="X3" s="31">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="31">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="31">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="31">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="31">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="31">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="31">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="31">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="35"/>
+      <c r="B4" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+    </row>
+    <row r="6" spans="1:32" s="25" customFormat="1">
+      <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>54</v>
+      </c>
+      <c r="G7" s="24">
+        <v>50</v>
+      </c>
+      <c r="H7" s="24">
+        <v>50</v>
+      </c>
+      <c r="I7" s="28">
+        <v>52</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+    </row>
+    <row r="11" spans="1:32" s="25" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+    </row>
+    <row r="18" spans="1:2" s="22" customFormat="1" ht="12">
+      <c r="A18" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="22" customFormat="1" ht="12">
+      <c r="A19" s="34"/>
+      <c r="B19" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="22" customFormat="1" ht="12">
+      <c r="A20" s="34"/>
+      <c r="B20" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="22" customFormat="1" ht="12">
+      <c r="A21" s="34"/>
+      <c r="B21" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="B12:AF12"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:AF2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="7" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="15">
         <v>40714</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="42">
         <v>40715</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="42">
         <v>40716</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="42">
         <v>40717</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="42">
         <v>40718</v>
       </c>
       <c r="G1" s="16">
@@ -2556,16 +3732,16 @@
       <c r="B2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="42" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -2592,16 +3768,16 @@
         <v>66</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="37" t="s">
         <v>68</v>
       </c>
       <c r="G3" s="17"/>
@@ -2626,16 +3802,16 @@
       <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="1" t="s">
@@ -2649,8 +3825,27 @@
       </c>
       <c r="L4" s="1"/>
     </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="125">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,6 +617,14 @@
   </si>
   <si>
     <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2851,7 +2859,7 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:I5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3153,7 +3161,9 @@
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="L5" s="30" t="s">
+        <v>123</v>
+      </c>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
@@ -3494,7 +3504,9 @@
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="L13" s="26" t="s">
+        <v>124</v>
+      </c>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="127">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,6 +625,14 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,K,Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2858,8 +2866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3164,9 +3175,15 @@
       <c r="L5" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+      <c r="M5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -3296,7 +3313,9 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="L8" s="26">
+        <v>80</v>
+      </c>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
@@ -3422,7 +3441,9 @@
       <c r="I11" s="28"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="L11" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
@@ -3546,7 +3567,9 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="L14" s="26" t="s">
+        <v>125</v>
+      </c>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="133">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,6 +633,30 @@
   </si>
   <si>
     <t>Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K,Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤A103XM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤AT568L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2867,10 +2891,10 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5:O5"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3184,7 +3208,9 @@
       <c r="O5" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="P5" s="30"/>
+      <c r="P5" s="30" t="s">
+        <v>127</v>
+      </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
@@ -3272,7 +3298,9 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="P7" s="26">
+        <v>66</v>
+      </c>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
@@ -3403,7 +3431,9 @@
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="P10" s="26" t="s">
+        <v>128</v>
+      </c>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
@@ -3444,13 +3474,21 @@
       <c r="L11" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="M11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
+      <c r="S11" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
@@ -3531,7 +3569,9 @@
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="P13" s="26" t="s">
+        <v>129</v>
+      </c>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
@@ -3576,7 +3616,9 @@
       <c r="P14" s="26"/>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
+      <c r="S14" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="135">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +653,14 @@
   </si>
   <si>
     <t>粤A103XM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,K,Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -885,7 +893,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,6 +1021,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1874,7 +1885,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
@@ -2891,18 +2902,16 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="V10" activeCellId="1" sqref="T10 V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="33" customWidth="1"/>
-    <col min="2" max="5" width="13.875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="23" customWidth="1"/>
-    <col min="7" max="32" width="13.875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="9.375" style="23" customWidth="1"/>
     <col min="33" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -3213,10 +3222,18 @@
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
+      <c r="S5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>15</v>
+      </c>
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
@@ -3304,9 +3321,13 @@
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
+      <c r="T7" s="26">
+        <v>69</v>
+      </c>
       <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
+      <c r="V7" s="26">
+        <v>66</v>
+      </c>
       <c r="W7" s="26"/>
       <c r="X7" s="26"/>
       <c r="Y7" s="26"/>
@@ -3344,16 +3365,28 @@
       <c r="L8" s="26">
         <v>80</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="M8" s="26">
+        <v>80</v>
+      </c>
+      <c r="N8" s="26">
+        <v>80</v>
+      </c>
+      <c r="O8" s="26">
+        <v>80</v>
+      </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
       <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
+      <c r="S8" s="26">
+        <v>80</v>
+      </c>
+      <c r="T8" s="26">
+        <v>80</v>
+      </c>
       <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
+      <c r="V8" s="26">
+        <v>80</v>
+      </c>
       <c r="W8" s="26"/>
       <c r="X8" s="26"/>
       <c r="Y8" s="26"/>
@@ -3437,9 +3470,13 @@
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
+      <c r="T10" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
+      <c r="V10" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="W10" s="26"/>
       <c r="X10" s="26"/>
       <c r="Y10" s="26"/>
@@ -3481,17 +3518,23 @@
         <v>131</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
-      <c r="S11" s="37" t="s">
+      <c r="S11" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="T11" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="V11" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="W11" s="26"/>
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
@@ -3619,9 +3662,15 @@
       <c r="S14" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
+      <c r="T14" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="V14" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
       <c r="Y14" s="26"/>
@@ -3760,7 +3809,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="141">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,6 +665,30 @@
   </si>
   <si>
     <t>粤AT568L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmstar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,6 +1029,9 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,9 +1048,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,7 +1349,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:P17"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2902,10 +2926,10 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V10" activeCellId="1" sqref="T10 V10"/>
+      <selection pane="bottomRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2916,79 +2940,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -3234,12 +3258,18 @@
       <c r="V5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="30"/>
+      <c r="W5" s="30" t="s">
+        <v>135</v>
+      </c>
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
+      <c r="AA5" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB5" s="30" t="s">
+        <v>138</v>
+      </c>
       <c r="AC5" s="30"/>
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
@@ -3249,37 +3279,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3328,12 +3358,18 @@
       <c r="V7" s="26">
         <v>66</v>
       </c>
-      <c r="W7" s="26"/>
+      <c r="W7" s="26">
+        <v>69</v>
+      </c>
       <c r="X7" s="26"/>
       <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
+      <c r="AA7" s="26">
+        <v>21</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>6</v>
+      </c>
       <c r="AC7" s="26"/>
       <c r="AD7" s="26"/>
       <c r="AE7" s="26"/>
@@ -3391,8 +3427,12 @@
       <c r="X8" s="26"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
+      <c r="AA8" s="26">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="26">
+        <v>6</v>
+      </c>
       <c r="AC8" s="26"/>
       <c r="AD8" s="26"/>
       <c r="AE8" s="26"/>
@@ -3402,37 +3442,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -3477,7 +3517,9 @@
       <c r="V10" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="W10" s="26"/>
+      <c r="W10" s="26" t="s">
+        <v>136</v>
+      </c>
       <c r="X10" s="26"/>
       <c r="Y10" s="26"/>
       <c r="Z10" s="26"/>
@@ -3523,7 +3565,7 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
-      <c r="S11" s="49" t="s">
+      <c r="S11" s="43" t="s">
         <v>68</v>
       </c>
       <c r="T11" s="26" t="s">
@@ -3538,7 +3580,9 @@
       <c r="W11" s="26"/>
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
+      <c r="Z11" s="26" t="s">
+        <v>139</v>
+      </c>
       <c r="AA11" s="26"/>
       <c r="AB11" s="26"/>
       <c r="AC11" s="26"/>
@@ -3550,37 +3594,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -3621,7 +3665,9 @@
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
+      <c r="W13" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="X13" s="26"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
@@ -3675,8 +3721,12 @@
       <c r="X14" s="26"/>
       <c r="Y14" s="26"/>
       <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
+      <c r="AA14" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB14" s="26" t="s">
+        <v>140</v>
+      </c>
       <c r="AC14" s="26"/>
       <c r="AD14" s="26"/>
       <c r="AE14" s="26"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -11,8 +11,9 @@
     <sheet name="June" sheetId="2" r:id="rId2"/>
     <sheet name="July" sheetId="4" r:id="rId3"/>
     <sheet name="CarLog11.7" sheetId="5" r:id="rId4"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="CarLog11.8" sheetId="7" r:id="rId5"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
@@ -140,8 +141,45 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当日同车上下班的同事
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="147">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,6 +727,30 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAMBERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.粤A103XM(幸龙)/粤AT568L(王林)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +979,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1032,6 +1094,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,6 +1114,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2926,10 +2994,10 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AC13" sqref="AC13"/>
+      <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2940,79 +3008,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="47"/>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -3263,15 +3331,21 @@
       </c>
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="Z5" s="30" t="s">
+        <v>144</v>
+      </c>
       <c r="AA5" s="30" t="s">
         <v>138</v>
       </c>
       <c r="AB5" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
+      <c r="AC5" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>142</v>
+      </c>
       <c r="AE5" s="30"/>
       <c r="AF5" s="30"/>
     </row>
@@ -3279,37 +3353,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3442,37 +3516,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -3583,9 +3657,15 @@
       <c r="Z11" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
+      <c r="AA11" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB11" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC11" s="26" t="s">
+        <v>143</v>
+      </c>
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26"/>
@@ -3594,37 +3674,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -3720,10 +3800,10 @@
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
       <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26" t="s">
-        <v>140</v>
-      </c>
+      <c r="Z14" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA14" s="26"/>
       <c r="AB14" s="26" t="s">
         <v>140</v>
       </c>
@@ -3856,6 +3936,774 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="9.375" style="23" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="22.5">
+      <c r="A1" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="48"/>
+      <c r="B2" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="49"/>
+      <c r="B3" s="44">
+        <v>1</v>
+      </c>
+      <c r="C3" s="44">
+        <v>2</v>
+      </c>
+      <c r="D3" s="44">
+        <v>3</v>
+      </c>
+      <c r="E3" s="44">
+        <v>4</v>
+      </c>
+      <c r="F3" s="44">
+        <v>5</v>
+      </c>
+      <c r="G3" s="44">
+        <v>6</v>
+      </c>
+      <c r="H3" s="44">
+        <v>7</v>
+      </c>
+      <c r="I3" s="44">
+        <v>8</v>
+      </c>
+      <c r="J3" s="44">
+        <v>9</v>
+      </c>
+      <c r="K3" s="44">
+        <v>10</v>
+      </c>
+      <c r="L3" s="44">
+        <v>11</v>
+      </c>
+      <c r="M3" s="44">
+        <v>12</v>
+      </c>
+      <c r="N3" s="44">
+        <v>13</v>
+      </c>
+      <c r="O3" s="44">
+        <v>14</v>
+      </c>
+      <c r="P3" s="44">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>16</v>
+      </c>
+      <c r="R3" s="44">
+        <v>17</v>
+      </c>
+      <c r="S3" s="44">
+        <v>18</v>
+      </c>
+      <c r="T3" s="44">
+        <v>19</v>
+      </c>
+      <c r="U3" s="44">
+        <v>20</v>
+      </c>
+      <c r="V3" s="44">
+        <v>21</v>
+      </c>
+      <c r="W3" s="44">
+        <v>22</v>
+      </c>
+      <c r="X3" s="44">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="44">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="44">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="44">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="44">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="44">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="44">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="44">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="35"/>
+      <c r="B4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF4" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+    </row>
+    <row r="6" spans="1:32" s="25" customFormat="1">
+      <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+    </row>
+    <row r="11" spans="1:32" s="25" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+    </row>
+    <row r="18" spans="1:2" s="22" customFormat="1" ht="12">
+      <c r="A18" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="22" customFormat="1" ht="12">
+      <c r="A19" s="34"/>
+      <c r="B19" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="22" customFormat="1" ht="12">
+      <c r="A20" s="34"/>
+      <c r="B20" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="22" customFormat="1" ht="12">
+      <c r="A21" s="34"/>
+      <c r="B21" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:AF2"/>
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="B9:AF9"/>
+    <mergeCell ref="B12:AF12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4013,7 +4861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="3"/>
+    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="158">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -747,6 +747,50 @@
   </si>
   <si>
     <t>SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAMBERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAMBERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,K,Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J,Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.此表为昭和车资的报销明细表。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.报销金额如实填写，若乘坐粤A103XM，上班车资为50元，下班80元；若乘坐同事车辆前往，无车资产生无须填写。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.同行同事栏：分上下班填写，写上同车的同事</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.报销人：因多名同事前往，请确定报销人。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.S=Simon,K=Kaine,J=Jack,Y=Yun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -762,7 +806,7 @@
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,6 +941,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -979,7 +1031,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,6 +1149,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,9 +1172,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2993,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -3008,79 +3063,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="48"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="49"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -3353,37 +3408,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3516,37 +3571,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -3674,37 +3729,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -3938,11 +3993,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3953,79 +4008,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="48"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="49"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="44">
         <v>1</v>
       </c>
@@ -4223,8 +4278,12 @@
       <c r="B5" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
@@ -4258,45 +4317,49 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="C7" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>147</v>
+      </c>
       <c r="E7" s="32"/>
       <c r="F7" s="28"/>
       <c r="G7" s="24"/>
@@ -4365,45 +4428,49 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="26">
+        <v>67</v>
+      </c>
+      <c r="D10" s="26">
+        <v>54</v>
+      </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="37"/>
@@ -4437,8 +4504,12 @@
       <c r="A11" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>148</v>
+      </c>
       <c r="D11" s="26"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -4473,45 +4544,51 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>151</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -4649,50 +4726,50 @@
       <c r="AE16" s="24"/>
       <c r="AF16" s="24"/>
     </row>
-    <row r="18" spans="1:2" s="22" customFormat="1" ht="12">
+    <row r="18" spans="1:2" s="22" customFormat="1">
       <c r="A18" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="22" customFormat="1" ht="12">
+      <c r="B18" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="22" customFormat="1">
       <c r="A19" s="34"/>
-      <c r="B19" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="22" customFormat="1" ht="12">
+      <c r="B19" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="22" customFormat="1">
       <c r="A20" s="34"/>
-      <c r="B20" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="22" customFormat="1" ht="12">
+      <c r="B20" s="45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="22" customFormat="1">
       <c r="A21" s="34"/>
-      <c r="B21" s="21" t="s">
-        <v>96</v>
+      <c r="B21" s="46" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="B22" s="40" t="s">
-        <v>117</v>
+      <c r="B22" s="47" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" s="51" t="s">
-        <v>146</v>
+      <c r="B23" s="48" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B12:AF12"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:AF2"/>
     <mergeCell ref="B6:AF6"/>
     <mergeCell ref="B9:AF9"/>
-    <mergeCell ref="B12:AF12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="163">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,10 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LAMBERT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,6 +791,30 @@
   </si>
   <si>
     <t>6.粤A103XM(幸龙)/粤AT568L(王林)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3997,7 +4017,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4284,13 +4304,23 @@
       <c r="D5" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="E5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="I5" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>159</v>
+      </c>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
@@ -4355,17 +4385,19 @@
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="28"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="26"/>
+      <c r="J7" s="26" t="s">
+        <v>161</v>
+      </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
@@ -4505,10 +4537,10 @@
         <v>103</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="28"/>
@@ -4581,20 +4613,22 @@
         <v>104</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>146</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="26"/>
+      <c r="J13" s="26" t="s">
+        <v>162</v>
+      </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
@@ -4731,35 +4765,35 @@
         <v>100</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="22" customFormat="1">
       <c r="A19" s="34"/>
       <c r="B19" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="22" customFormat="1">
       <c r="A20" s="34"/>
       <c r="B20" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="22" customFormat="1">
       <c r="A21" s="34"/>
       <c r="B21" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="168">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -790,31 +790,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6.粤A103XM(幸龙)/粤AT568L(王林)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAXI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAXI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>粤AT568L</t>
+  </si>
+  <si>
+    <t>K,Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4014,10 +4033,10 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4313,22 +4332,34 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
+      <c r="L5" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="P5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
       <c r="V5" s="30"/>
@@ -4385,10 +4416,10 @@
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="28"/>
@@ -4396,17 +4427,21 @@
       <c r="H7" s="24"/>
       <c r="I7" s="28"/>
       <c r="J7" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="M7" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
+      <c r="S7" s="26" t="s">
+        <v>163</v>
+      </c>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
@@ -4441,7 +4476,9 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
       <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
+      <c r="S8" s="23">
+        <v>80</v>
+      </c>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
@@ -4557,7 +4594,9 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
-      <c r="S11" s="43"/>
+      <c r="S11" s="26" t="s">
+        <v>166</v>
+      </c>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="37"/>
@@ -4627,17 +4666,21 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="M13" s="26" t="s">
+        <v>161</v>
+      </c>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
+      <c r="S13" s="26" t="s">
+        <v>164</v>
+      </c>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
@@ -4709,7 +4752,9 @@
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
+      <c r="S15" s="26" t="s">
+        <v>167</v>
+      </c>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
       <c r="V15" s="26"/>
@@ -4793,7 +4838,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="B23" s="48" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="168">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4033,10 +4033,10 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomRight" activeCell="W5" activeCellId="1" sqref="T5 W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4360,10 +4360,14 @@
       <c r="S5" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="T5" s="30"/>
+      <c r="T5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="U5" s="30"/>
       <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
+      <c r="W5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="30"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="172">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -834,6 +834,22 @@
   </si>
   <si>
     <t>K,Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤APN645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J,S,K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S,K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4036,7 +4052,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W5" activeCellId="1" sqref="T5 W5"/>
+      <selection pane="bottomRight" activeCell="Z13" sqref="Z13:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4368,9 +4384,15 @@
       <c r="W5" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="X5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="30"/>
@@ -4563,9 +4585,15 @@
       <c r="U10" s="26"/>
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
+      <c r="X10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z10" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="AA10" s="26"/>
       <c r="AB10" s="26"/>
       <c r="AC10" s="26"/>
@@ -4605,9 +4633,15 @@
       <c r="U11" s="26"/>
       <c r="V11" s="37"/>
       <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
+      <c r="X11" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y11" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z11" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="AA11" s="26"/>
       <c r="AB11" s="26"/>
       <c r="AC11" s="26"/>
@@ -4689,9 +4723,15 @@
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
       <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
+      <c r="X13" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y13" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z13" s="26" t="s">
+        <v>171</v>
+      </c>
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
@@ -4725,9 +4765,15 @@
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
+      <c r="X14" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y14" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z14" s="26" t="s">
+        <v>171</v>
+      </c>
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
       <c r="AC14" s="26"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="4"/>
+    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="July" sheetId="4" r:id="rId3"/>
     <sheet name="CarLog11.7" sheetId="5" r:id="rId4"/>
     <sheet name="CarLog11.8" sheetId="7" r:id="rId5"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="CarLog11.9" sheetId="8" r:id="rId6"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
@@ -178,8 +179,45 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当日同车上下班的同事
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="173">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -850,6 +888,10 @@
   </si>
   <si>
     <t>S,K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤A909F3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1086,7 +1128,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,6 +1251,9 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1526,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="A14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2087,10 +2132,10 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3118,79 +3163,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="52"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -3463,37 +3508,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3626,37 +3671,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -3784,37 +3829,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -4048,94 +4093,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z13" sqref="Z13:Z14"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="9.375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="9.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.5" style="23" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="52"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="44">
         <v>1</v>
       </c>
@@ -4393,48 +4457,56 @@
       <c r="Z5" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="AA5" s="30"/>
+      <c r="AA5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="AB5" s="30"/>
       <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
+      <c r="AD5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF5" s="30" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:32" s="25" customFormat="1">
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -4523,37 +4595,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -4598,8 +4670,12 @@
       <c r="AB10" s="26"/>
       <c r="AC10" s="26"/>
       <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
+      <c r="AE10" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF10" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11" spans="1:32" s="25" customFormat="1">
       <c r="A11" s="27" t="s">
@@ -4646,44 +4722,48 @@
       <c r="AB11" s="26"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
+      <c r="AE11" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF11" s="26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -4910,10 +4990,778 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="9.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="22.5">
+      <c r="A1" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="53"/>
+      <c r="B2" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="54"/>
+      <c r="B3" s="49">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49">
+        <v>2</v>
+      </c>
+      <c r="D3" s="49">
+        <v>3</v>
+      </c>
+      <c r="E3" s="49">
+        <v>4</v>
+      </c>
+      <c r="F3" s="49">
+        <v>5</v>
+      </c>
+      <c r="G3" s="49">
+        <v>6</v>
+      </c>
+      <c r="H3" s="49">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49">
+        <v>8</v>
+      </c>
+      <c r="J3" s="49">
+        <v>9</v>
+      </c>
+      <c r="K3" s="49">
+        <v>10</v>
+      </c>
+      <c r="L3" s="49">
+        <v>11</v>
+      </c>
+      <c r="M3" s="49">
+        <v>12</v>
+      </c>
+      <c r="N3" s="49">
+        <v>13</v>
+      </c>
+      <c r="O3" s="49">
+        <v>14</v>
+      </c>
+      <c r="P3" s="49">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="49">
+        <v>16</v>
+      </c>
+      <c r="R3" s="49">
+        <v>17</v>
+      </c>
+      <c r="S3" s="49">
+        <v>18</v>
+      </c>
+      <c r="T3" s="49">
+        <v>19</v>
+      </c>
+      <c r="U3" s="49">
+        <v>20</v>
+      </c>
+      <c r="V3" s="49">
+        <v>21</v>
+      </c>
+      <c r="W3" s="49">
+        <v>22</v>
+      </c>
+      <c r="X3" s="49">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="49">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="49">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="49">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="49">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="49">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="49">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="35"/>
+      <c r="B4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+    </row>
+    <row r="6" spans="1:31" s="25" customFormat="1">
+      <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+    </row>
+    <row r="11" spans="1:31" s="25" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+    </row>
+    <row r="18" spans="1:2" s="22" customFormat="1">
+      <c r="A18" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="22" customFormat="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="22" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="22" customFormat="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="B6:AE6"/>
+    <mergeCell ref="B9:AE9"/>
+    <mergeCell ref="B12:AE12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5067,7 +5915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="174">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -892,6 +892,10 @@
   </si>
   <si>
     <t>粤A909F3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3149,7 +3153,7 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
@@ -4996,7 +5000,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5004,14 +5008,11 @@
     <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="23" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="6.5" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.5" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="7.5" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" style="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.5" style="23" bestFit="1" customWidth="1"/>
@@ -5223,10 +5224,10 @@
       <c r="L4" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="29" t="s">
         <v>72</v>
       </c>
       <c r="O4" s="30" t="s">
@@ -5293,18 +5294,34 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="F5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
+      <c r="O5" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
@@ -5427,36 +5444,34 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="32" t="s">
@@ -5740,13 +5755,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="B12:AE12"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:AE2"/>
     <mergeCell ref="B6:AE6"/>
-    <mergeCell ref="B9:AE9"/>
-    <mergeCell ref="B12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5760,8 +5774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="176">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -896,6 +896,14 @@
   </si>
   <si>
     <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤APN645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王林请的司机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4997,32 +5005,16 @@
   <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="23" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="9.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="4.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="10.625" style="23" customWidth="1"/>
     <col min="32" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -5324,9 +5316,15 @@
       </c>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
+      <c r="T5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
@@ -5415,8 +5413,11 @@
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="26" t="s">
+        <v>175</v>
+      </c>
       <c r="G8" s="26"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -5427,6 +5428,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
       <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
@@ -5450,6 +5452,7 @@
       <c r="E9" s="27"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
@@ -5457,11 +5460,20 @@
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="P9" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>174</v>
+      </c>
       <c r="R9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
       <c r="X9" s="26"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="176">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5005,10 +5005,10 @@
   <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5325,8 +5325,12 @@
       <c r="V5" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
+      <c r="W5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="Y5" s="30"/>
       <c r="Z5" s="30"/>
       <c r="AA5" s="30"/>
@@ -5476,7 +5480,9 @@
       </c>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
+      <c r="X9" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="Y9" s="26"/>
       <c r="Z9" s="26"/>
       <c r="AA9" s="26"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="5"/>
+    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="CarLog11.7" sheetId="5" r:id="rId4"/>
     <sheet name="CarLog11.8" sheetId="7" r:id="rId5"/>
     <sheet name="CarLog11.9" sheetId="8" r:id="rId6"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
+    <sheet name="CarLog11.10" sheetId="9" r:id="rId7"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
@@ -216,8 +217,45 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当日同车上下班的同事
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="180">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,6 +942,22 @@
   </si>
   <si>
     <t>王林请的司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤APN645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1140,7 +1194,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,6 +1317,9 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3175,79 +3232,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -3520,37 +3577,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3683,37 +3740,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -3841,37 +3898,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -4139,79 +4196,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="44">
         <v>1</v>
       </c>
@@ -4488,37 +4545,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -4607,37 +4664,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -4745,37 +4802,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -5004,11 +5061,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
+      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5019,77 +5076,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -5343,36 +5400,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -5565,36 +5622,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">
@@ -5790,6 +5847,794 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="10.625" style="23" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="22.5">
+      <c r="A1" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="54"/>
+      <c r="B2" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="55"/>
+      <c r="B3" s="50">
+        <v>1</v>
+      </c>
+      <c r="C3" s="50">
+        <v>2</v>
+      </c>
+      <c r="D3" s="50">
+        <v>3</v>
+      </c>
+      <c r="E3" s="50">
+        <v>4</v>
+      </c>
+      <c r="F3" s="50">
+        <v>5</v>
+      </c>
+      <c r="G3" s="50">
+        <v>6</v>
+      </c>
+      <c r="H3" s="50">
+        <v>7</v>
+      </c>
+      <c r="I3" s="50">
+        <v>8</v>
+      </c>
+      <c r="J3" s="50">
+        <v>9</v>
+      </c>
+      <c r="K3" s="50">
+        <v>10</v>
+      </c>
+      <c r="L3" s="50">
+        <v>11</v>
+      </c>
+      <c r="M3" s="50">
+        <v>12</v>
+      </c>
+      <c r="N3" s="50">
+        <v>13</v>
+      </c>
+      <c r="O3" s="50">
+        <v>14</v>
+      </c>
+      <c r="P3" s="50">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="50">
+        <v>16</v>
+      </c>
+      <c r="R3" s="50">
+        <v>17</v>
+      </c>
+      <c r="S3" s="50">
+        <v>18</v>
+      </c>
+      <c r="T3" s="50">
+        <v>19</v>
+      </c>
+      <c r="U3" s="50">
+        <v>20</v>
+      </c>
+      <c r="V3" s="50">
+        <v>21</v>
+      </c>
+      <c r="W3" s="50">
+        <v>22</v>
+      </c>
+      <c r="X3" s="50">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="50">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="50">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="50">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="50">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="50">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="50">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="35"/>
+      <c r="B4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+    </row>
+    <row r="6" spans="1:31" s="25" customFormat="1">
+      <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+    </row>
+    <row r="11" spans="1:31" s="25" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+    </row>
+    <row r="19" spans="1:31" s="22" customFormat="1">
+      <c r="A19" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="22" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="22" customFormat="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="22" customFormat="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="B23" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="B24" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="B6:AE6"/>
+    <mergeCell ref="B12:AE12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5947,7 +6792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="184">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -945,10 +945,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>showa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>粤APN645</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -959,6 +955,25 @@
   <si>
     <t>Yun</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤APN645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤APN645</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1186,6 +1201,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1194,7 +1246,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1321,6 +1373,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1341,6 +1396,24 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3232,79 +3305,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -3577,37 +3650,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3740,37 +3813,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -3898,37 +3971,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -4196,79 +4269,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="44">
         <v>1</v>
       </c>
@@ -4545,37 +4618,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -4664,37 +4737,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -4802,37 +4875,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -5076,77 +5149,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -5400,36 +5473,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -5622,36 +5695,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">
@@ -5847,13 +5920,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5863,263 +5936,270 @@
     <col min="32" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:32" ht="22.5">
+      <c r="A1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="55"/>
+      <c r="B2" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="55"/>
-      <c r="B3" s="50">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="60"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="56"/>
+      <c r="B3" s="51">
         <v>1</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="51">
         <v>2</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="51">
         <v>3</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="51">
         <v>4</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="51">
         <v>5</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="51">
         <v>6</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="51">
         <v>7</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="51">
         <v>8</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="51">
         <v>9</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="51">
         <v>10</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="51">
         <v>11</v>
       </c>
-      <c r="M3" s="50">
+      <c r="M3" s="51">
         <v>12</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="51">
         <v>13</v>
       </c>
-      <c r="O3" s="50">
+      <c r="O3" s="51">
         <v>14</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="51">
         <v>15</v>
       </c>
-      <c r="Q3" s="50">
+      <c r="Q3" s="51">
         <v>16</v>
       </c>
-      <c r="R3" s="50">
+      <c r="R3" s="51">
         <v>17</v>
       </c>
-      <c r="S3" s="50">
+      <c r="S3" s="51">
         <v>18</v>
       </c>
-      <c r="T3" s="50">
+      <c r="T3" s="51">
         <v>19</v>
       </c>
-      <c r="U3" s="50">
+      <c r="U3" s="51">
         <v>20</v>
       </c>
-      <c r="V3" s="50">
+      <c r="V3" s="51">
         <v>21</v>
       </c>
-      <c r="W3" s="50">
+      <c r="W3" s="51">
         <v>22</v>
       </c>
-      <c r="X3" s="50">
+      <c r="X3" s="51">
         <v>23</v>
       </c>
-      <c r="Y3" s="50">
+      <c r="Y3" s="51">
         <v>24</v>
       </c>
-      <c r="Z3" s="50">
+      <c r="Z3" s="51">
         <v>25</v>
       </c>
-      <c r="AA3" s="50">
+      <c r="AA3" s="51">
         <v>26</v>
       </c>
-      <c r="AB3" s="50">
+      <c r="AB3" s="51">
         <v>27</v>
       </c>
-      <c r="AC3" s="50">
+      <c r="AC3" s="51">
         <v>28</v>
       </c>
-      <c r="AD3" s="50">
+      <c r="AD3" s="51">
         <v>29</v>
       </c>
-      <c r="AE3" s="50">
+      <c r="AE3" s="51">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="AF3" s="51">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="35"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="H4" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="J4" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="K4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="L4" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="P4" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="Q4" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="R4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="S4" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="T4" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="U4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="V4" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="W4" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="X4" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="Y4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="30" t="s">
+      <c r="Z4" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="AA4" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="AB4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="30" t="s">
+      <c r="AC4" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="AD4" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="29" t="s">
+      <c r="AE4" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB4" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC4" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD4" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE4" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AF4" s="50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="41" t="s">
         <v>118</v>
       </c>
@@ -6129,17 +6209,32 @@
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+        <v>180</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>119</v>
+      </c>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -6156,43 +6251,45 @@
       <c r="AC5" s="30"/>
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
-    </row>
-    <row r="6" spans="1:31" s="25" customFormat="1">
+      <c r="AF5" s="24"/>
+    </row>
+    <row r="6" spans="1:32" s="25" customFormat="1">
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="63"/>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
         <v>104</v>
       </c>
@@ -6226,8 +6323,9 @@
       <c r="AC7" s="26"/>
       <c r="AD7" s="26"/>
       <c r="AE7" s="26"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AF7" s="24"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="27" t="s">
         <v>103</v>
       </c>
@@ -6261,8 +6359,9 @@
       <c r="AC8" s="26"/>
       <c r="AD8" s="26"/>
       <c r="AE8" s="26"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AF8" s="24"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
@@ -6273,15 +6372,27 @@
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="I9" s="26"/>
+        <v>176</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
+      <c r="K9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
@@ -6298,8 +6409,9 @@
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
       <c r="AE9" s="26"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AF9" s="24"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
         <v>104</v>
       </c>
@@ -6333,8 +6445,9 @@
       <c r="AC10" s="26"/>
       <c r="AD10" s="26"/>
       <c r="AE10" s="26"/>
-    </row>
-    <row r="11" spans="1:31" s="25" customFormat="1">
+      <c r="AF10" s="24"/>
+    </row>
+    <row r="11" spans="1:32" s="25" customFormat="1">
       <c r="A11" s="27" t="s">
         <v>103</v>
       </c>
@@ -6368,43 +6481,45 @@
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AF11" s="26"/>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="63"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
         <v>104</v>
       </c>
@@ -6438,8 +6553,9 @@
       <c r="AC13" s="26"/>
       <c r="AD13" s="26"/>
       <c r="AE13" s="26"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="AF13" s="24"/>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="27" t="s">
         <v>103</v>
       </c>
@@ -6473,8 +6589,9 @@
       <c r="AC14" s="26"/>
       <c r="AD14" s="26"/>
       <c r="AE14" s="26"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AF14" s="24"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="38" t="s">
         <v>102</v>
       </c>
@@ -6488,7 +6605,6 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
@@ -6508,10 +6624,11 @@
       <c r="AC15" s="26"/>
       <c r="AD15" s="26"/>
       <c r="AE15" s="26"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="AF15" s="24"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="26"/>
@@ -6520,15 +6637,27 @@
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="I16" s="26"/>
+        <v>178</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
+      <c r="K16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
@@ -6545,8 +6674,9 @@
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="26"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AF16" s="24"/>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="39" t="s">
         <v>101</v>
       </c>
@@ -6560,7 +6690,9 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="24">
+        <v>100</v>
+      </c>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
@@ -6580,8 +6712,9 @@
       <c r="AC17" s="24"/>
       <c r="AD17" s="24"/>
       <c r="AE17" s="24"/>
-    </row>
-    <row r="19" spans="1:31" s="22" customFormat="1">
+      <c r="AF17" s="24"/>
+    </row>
+    <row r="19" spans="1:32" s="22" customFormat="1">
       <c r="A19" s="34" t="s">
         <v>100</v>
       </c>
@@ -6589,30 +6722,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="22" customFormat="1">
+    <row r="20" spans="1:32" s="22" customFormat="1">
       <c r="A20" s="34"/>
       <c r="B20" s="45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="22" customFormat="1">
+    <row r="21" spans="1:32" s="22" customFormat="1">
       <c r="A21" s="34"/>
       <c r="B21" s="45" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="22" customFormat="1">
+    <row r="22" spans="1:32" s="22" customFormat="1">
       <c r="A22" s="34"/>
       <c r="B22" s="46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="B23" s="47" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="B24" s="48" t="s">
         <v>165</v>
       </c>
@@ -6621,9 +6754,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:AE2"/>
-    <mergeCell ref="B6:AE6"/>
-    <mergeCell ref="B12:AE12"/>
+    <mergeCell ref="B2:AF2"/>
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="B12:AF12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="184">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5923,10 +5923,10 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6237,7 +6237,9 @@
       </c>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="R5" s="30" t="s">
+        <v>119</v>
+      </c>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
@@ -6395,7 +6397,9 @@
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="R9" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
@@ -6660,7 +6664,9 @@
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
+      <c r="R16" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
@@ -6695,7 +6701,9 @@
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+      <c r="O17" s="24">
+        <v>200</v>
+      </c>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="186">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -974,6 +974,14 @@
   </si>
   <si>
     <t>粤APN645</t>
+  </si>
+  <si>
+    <t>Lambert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5923,10 +5931,10 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6240,8 +6248,12 @@
       <c r="R5" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
+      <c r="S5" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>185</v>
+      </c>
       <c r="U5" s="30"/>
       <c r="V5" s="30"/>
       <c r="W5" s="30"/>
@@ -6400,8 +6412,12 @@
       <c r="R9" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
+      <c r="S9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
@@ -6667,8 +6683,12 @@
       <c r="R16" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
+      <c r="S16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>184</v>
+      </c>
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
@@ -6707,7 +6727,9 @@
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
+      <c r="S17" s="24">
+        <v>100</v>
+      </c>
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
       <c r="V17" s="24"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="187">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -981,6 +981,10 @@
   </si>
   <si>
     <t>Showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lambert/Yun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5931,10 +5935,10 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6254,14 +6258,26 @@
       <c r="T5" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
+      <c r="U5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>119</v>
+      </c>
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
+      <c r="Y5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB5" s="30" t="s">
+        <v>119</v>
+      </c>
       <c r="AC5" s="30"/>
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
@@ -6418,14 +6434,26 @@
       <c r="T9" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
+      <c r="U9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="V9" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="W9" s="26"/>
       <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
+      <c r="Y9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB9" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
       <c r="AE9" s="26"/>
@@ -6689,14 +6717,26 @@
       <c r="T16" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
+      <c r="U16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="V16" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
+      <c r="Y16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB16" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="26"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="6"/>
+    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,10 @@
     <sheet name="CarLog11.8" sheetId="7" r:id="rId5"/>
     <sheet name="CarLog11.9" sheetId="8" r:id="rId6"/>
     <sheet name="CarLog11.10" sheetId="9" r:id="rId7"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId9"/>
+    <sheet name="CarLog11.11" sheetId="10" r:id="rId8"/>
+    <sheet name="CarLog (2)" sheetId="11" r:id="rId9"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
@@ -254,8 +256,45 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当日同车上下班的同事
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="196">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -985,6 +1024,42 @@
   </si>
   <si>
     <t>Lambert/Yun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS(PM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1140,7 +1215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1186,6 +1261,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,7 +1345,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1389,6 +1476,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2281,6 +2380,178 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="7" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15">
+        <v>40714</v>
+      </c>
+      <c r="C1" s="42">
+        <v>40715</v>
+      </c>
+      <c r="D1" s="42">
+        <v>40716</v>
+      </c>
+      <c r="E1" s="42">
+        <v>40717</v>
+      </c>
+      <c r="F1" s="42">
+        <v>40718</v>
+      </c>
+      <c r="G1" s="16">
+        <v>40719</v>
+      </c>
+      <c r="H1" s="16">
+        <v>40720</v>
+      </c>
+      <c r="I1" s="15">
+        <v>40721</v>
+      </c>
+      <c r="J1" s="19">
+        <v>40722</v>
+      </c>
+      <c r="K1" s="15">
+        <v>40723</v>
+      </c>
+      <c r="L1" s="15">
+        <v>40724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1"/>
+      <c r="B2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J34"/>
@@ -3317,79 +3588,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="56"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -3662,37 +3933,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3825,37 +4096,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -3983,37 +4254,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -4281,79 +4552,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="56"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="44">
         <v>1</v>
       </c>
@@ -4630,37 +4901,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -4749,37 +5020,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -4887,37 +5158,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -5150,7 +5421,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5:AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5161,77 +5432,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="55"/>
-      <c r="B2" s="57" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="56"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -5307,19 +5578,19 @@
       <c r="Z3" s="49">
         <v>25</v>
       </c>
-      <c r="AA3" s="49">
+      <c r="AA3" s="55">
         <v>26</v>
       </c>
-      <c r="AB3" s="49">
+      <c r="AB3" s="55">
         <v>27</v>
       </c>
-      <c r="AC3" s="49">
+      <c r="AC3" s="55">
         <v>28</v>
       </c>
-      <c r="AD3" s="49">
+      <c r="AD3" s="55">
         <v>29</v>
       </c>
-      <c r="AE3" s="49">
+      <c r="AE3" s="55">
         <v>30</v>
       </c>
     </row>
@@ -5475,46 +5746,56 @@
       </c>
       <c r="Y5" s="30"/>
       <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
+      <c r="AA5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE5" s="30" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="6" spans="1:31" s="25" customFormat="1">
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -5707,36 +5988,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">
@@ -5934,11 +6215,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z17" sqref="Z17"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5949,78 +6231,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="55"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="60"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="64"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="56"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="51">
         <v>1</v>
       </c>
@@ -6278,46 +6560,50 @@
       <c r="AB5" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="AC5" s="30"/>
+      <c r="AC5" s="30" t="s">
+        <v>119</v>
+      </c>
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
-      <c r="AF5" s="24"/>
+      <c r="AF5" s="30" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:32" s="25" customFormat="1">
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="63"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="67"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -6454,10 +6740,14 @@
       <c r="AB9" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="AC9" s="26"/>
+      <c r="AC9" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="AD9" s="26"/>
       <c r="AE9" s="26"/>
-      <c r="AF9" s="24"/>
+      <c r="AF9" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -6535,37 +6825,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="63"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="67"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -6737,10 +7027,14 @@
       <c r="AB16" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="AC16" s="26"/>
+      <c r="AC16" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="AD16" s="26"/>
       <c r="AE16" s="26"/>
-      <c r="AF16" s="24"/>
+      <c r="AF16" s="26" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="39" t="s">
@@ -6775,11 +7069,15 @@
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
+      <c r="Y17" s="24">
+        <v>100</v>
+      </c>
       <c r="Z17" s="24"/>
       <c r="AA17" s="24"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
+      <c r="AC17" s="24">
+        <v>200</v>
+      </c>
       <c r="AD17" s="24"/>
       <c r="AE17" s="24"/>
       <c r="AF17" s="24"/>
@@ -6838,10 +7136,829 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="H16:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="30" width="10.625" style="23" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="22.5">
+      <c r="A1" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="59"/>
+      <c r="B2" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="64"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="60"/>
+      <c r="B3" s="52">
+        <v>1</v>
+      </c>
+      <c r="C3" s="52">
+        <v>2</v>
+      </c>
+      <c r="D3" s="52">
+        <v>3</v>
+      </c>
+      <c r="E3" s="52">
+        <v>4</v>
+      </c>
+      <c r="F3" s="52">
+        <v>5</v>
+      </c>
+      <c r="G3" s="52">
+        <v>6</v>
+      </c>
+      <c r="H3" s="52">
+        <v>7</v>
+      </c>
+      <c r="I3" s="52">
+        <v>8</v>
+      </c>
+      <c r="J3" s="52">
+        <v>9</v>
+      </c>
+      <c r="K3" s="52">
+        <v>10</v>
+      </c>
+      <c r="L3" s="52">
+        <v>11</v>
+      </c>
+      <c r="M3" s="52">
+        <v>12</v>
+      </c>
+      <c r="N3" s="52">
+        <v>13</v>
+      </c>
+      <c r="O3" s="52">
+        <v>14</v>
+      </c>
+      <c r="P3" s="52">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="52">
+        <v>16</v>
+      </c>
+      <c r="R3" s="52">
+        <v>17</v>
+      </c>
+      <c r="S3" s="52">
+        <v>18</v>
+      </c>
+      <c r="T3" s="52">
+        <v>19</v>
+      </c>
+      <c r="U3" s="52">
+        <v>20</v>
+      </c>
+      <c r="V3" s="52">
+        <v>21</v>
+      </c>
+      <c r="W3" s="52">
+        <v>22</v>
+      </c>
+      <c r="X3" s="52">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="52">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="52">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="52">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="52">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="52">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="52">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="35"/>
+      <c r="B4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" s="53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+    </row>
+    <row r="6" spans="1:31" s="25" customFormat="1">
+      <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="67"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="24"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="24"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="24"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="24"/>
+    </row>
+    <row r="11" spans="1:31" s="25" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="67"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="24"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="24"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="24"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24">
+        <v>140</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24">
+        <v>100</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+    </row>
+    <row r="19" spans="1:31" s="22" customFormat="1">
+      <c r="A19" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="22" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="22" customFormat="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="22" customFormat="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="B23" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="B24" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="B6:AE6"/>
+    <mergeCell ref="B12:AE12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6993,17 +8110,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="196">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7139,11 +7139,11 @@
   <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="H16:I16"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7593,7 +7593,9 @@
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="O9" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="24"/>
@@ -7845,7 +7847,9 @@
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
+      <c r="O16" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="208">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1060,6 +1060,54 @@
   </si>
   <si>
     <t>TS(PM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS/SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤APN645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已签JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actavis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yun/Sam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7139,11 +7187,11 @@
   <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7446,16 +7494,32 @@
       <c r="O5" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="P5" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>204</v>
+      </c>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
+      <c r="V5" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>206</v>
+      </c>
       <c r="Z5" s="30"/>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
@@ -7517,7 +7581,9 @@
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="Q7" s="26" t="s">
+        <v>198</v>
+      </c>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
       <c r="T7" s="26"/>
@@ -7550,17 +7616,22 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="O8" s="26" t="s">
+        <v>201</v>
+      </c>
       <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="Q8" s="26" t="s">
+        <v>196</v>
+      </c>
       <c r="R8" s="26"/>
       <c r="S8" s="26"/>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
       <c r="W8" s="26"/>
       <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
+      <c r="Y8" s="26" t="s">
+        <v>207</v>
+      </c>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
       <c r="AB8" s="26"/>
@@ -7594,18 +7665,30 @@
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
+      <c r="R9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="26"/>
+      <c r="V9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="W9" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="X9" s="26"/>
-      <c r="Y9" s="24"/>
+      <c r="Y9" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
@@ -7851,15 +7934,25 @@
         <v>114</v>
       </c>
       <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
+      <c r="Q16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
+      <c r="V16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="W16" s="26" t="s">
+        <v>205</v>
+      </c>
       <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
+      <c r="Y16" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="AA16" s="26"/>
       <c r="AB16" s="26"/>
       <c r="AC16" s="26"/>
@@ -7890,7 +7983,9 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
+      <c r="R17" s="24">
+        <v>200</v>
+      </c>
       <c r="S17" s="24"/>
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" activeTab="7"/>
+    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" tabRatio="767" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
     <sheet name="June" sheetId="2" r:id="rId2"/>
     <sheet name="July" sheetId="4" r:id="rId3"/>
-    <sheet name="CarLog11.7" sheetId="5" r:id="rId4"/>
-    <sheet name="CarLog11.8" sheetId="7" r:id="rId5"/>
-    <sheet name="CarLog11.9" sheetId="8" r:id="rId6"/>
-    <sheet name="CarLog11.10" sheetId="9" r:id="rId7"/>
-    <sheet name="CarLog11.11" sheetId="10" r:id="rId8"/>
-    <sheet name="CarLog (2)" sheetId="11" r:id="rId9"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId11"/>
+    <sheet name="CarLog11.6" sheetId="11" r:id="rId4"/>
+    <sheet name="CarLog11.7" sheetId="5" r:id="rId5"/>
+    <sheet name="CarLog11.8" sheetId="7" r:id="rId6"/>
+    <sheet name="CarLog11.9" sheetId="8" r:id="rId7"/>
+    <sheet name="CarLog11.10" sheetId="9" r:id="rId8"/>
+    <sheet name="CarLog11.11" sheetId="10" r:id="rId9"/>
+    <sheet name="CarLog11.12" sheetId="12" r:id="rId10"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet1!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -293,8 +295,45 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当日同车上下班的同事
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="223">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1103,11 +1142,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤APN645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office/TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OffiCE/TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE/TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS/SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PM</t>
+    <t>SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤APN645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1393,7 +1492,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1537,6 +1636,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1873,7 +1978,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="A14:B15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2430,10 +2535,903 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:AF6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="10.625" style="23" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="22.5">
+      <c r="A1" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="61"/>
+      <c r="B2" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="66"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="62"/>
+      <c r="B3" s="56">
+        <v>1</v>
+      </c>
+      <c r="C3" s="56">
+        <v>2</v>
+      </c>
+      <c r="D3" s="56">
+        <v>3</v>
+      </c>
+      <c r="E3" s="56">
+        <v>4</v>
+      </c>
+      <c r="F3" s="56">
+        <v>5</v>
+      </c>
+      <c r="G3" s="56">
+        <v>6</v>
+      </c>
+      <c r="H3" s="56">
+        <v>7</v>
+      </c>
+      <c r="I3" s="56">
+        <v>8</v>
+      </c>
+      <c r="J3" s="56">
+        <v>9</v>
+      </c>
+      <c r="K3" s="56">
+        <v>10</v>
+      </c>
+      <c r="L3" s="56">
+        <v>11</v>
+      </c>
+      <c r="M3" s="56">
+        <v>12</v>
+      </c>
+      <c r="N3" s="56">
+        <v>13</v>
+      </c>
+      <c r="O3" s="56">
+        <v>14</v>
+      </c>
+      <c r="P3" s="56">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="56">
+        <v>16</v>
+      </c>
+      <c r="R3" s="56">
+        <v>17</v>
+      </c>
+      <c r="S3" s="56">
+        <v>18</v>
+      </c>
+      <c r="T3" s="56">
+        <v>19</v>
+      </c>
+      <c r="U3" s="56">
+        <v>20</v>
+      </c>
+      <c r="V3" s="56">
+        <v>21</v>
+      </c>
+      <c r="W3" s="56">
+        <v>22</v>
+      </c>
+      <c r="X3" s="56">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="56">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="56">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="56">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="56">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="56">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="56">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="56">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="56">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="35"/>
+      <c r="B4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" s="54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+    </row>
+    <row r="6" spans="1:32" s="25" customFormat="1">
+      <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="69"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="24"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="24"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="24"/>
+    </row>
+    <row r="11" spans="1:32" s="25" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="69"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28">
+        <v>67</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26">
+        <v>66</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="24"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26">
+        <v>200</v>
+      </c>
+      <c r="G14" s="26">
+        <v>20</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26">
+        <v>77</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="24"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="24"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+    </row>
+    <row r="19" spans="1:32" s="22" customFormat="1">
+      <c r="A19" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="22" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="22" customFormat="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="22" customFormat="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="B23" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="B24" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:AF2"/>
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="B12:AF12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="A11:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2587,14 +3585,197 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="56">
+        <v>4</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="56">
+        <v>9</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25">
+      <c r="A4" s="56">
+        <v>10</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
+      <c r="A5" s="56">
+        <v>11</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
+      <c r="A6" s="56">
+        <v>14</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25">
+      <c r="A7" s="56">
+        <v>16</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="56">
+        <v>17</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25">
+      <c r="A9" s="56">
+        <v>18</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25">
+      <c r="A10" s="56">
+        <v>21</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25">
+      <c r="A11" s="56">
+        <v>22</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25">
+      <c r="A12" s="56">
+        <v>24</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
+      <c r="A13" s="56">
+        <v>25</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25">
+      <c r="A14" s="56">
+        <v>28</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25">
+      <c r="A15" s="56">
+        <v>29</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25">
+      <c r="A16" s="56">
+        <v>30</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C16"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3619,6 +4800,165 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="A23:J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="7" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15">
+        <v>40714</v>
+      </c>
+      <c r="C1" s="42">
+        <v>40715</v>
+      </c>
+      <c r="D1" s="42">
+        <v>40716</v>
+      </c>
+      <c r="E1" s="42">
+        <v>40717</v>
+      </c>
+      <c r="F1" s="42">
+        <v>40718</v>
+      </c>
+      <c r="G1" s="16">
+        <v>40719</v>
+      </c>
+      <c r="H1" s="16">
+        <v>40720</v>
+      </c>
+      <c r="I1" s="15">
+        <v>40721</v>
+      </c>
+      <c r="J1" s="19">
+        <v>40722</v>
+      </c>
+      <c r="K1" s="15">
+        <v>40723</v>
+      </c>
+      <c r="L1" s="15">
+        <v>40724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1"/>
+      <c r="B2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3636,79 +4976,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="59"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="60"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -3981,37 +5321,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -4144,37 +5484,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -4302,37 +5642,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -4562,7 +5902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF23"/>
   <sheetViews>
@@ -4600,79 +5940,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="59"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="60"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="44">
         <v>1</v>
       </c>
@@ -4949,37 +6289,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -5068,37 +6408,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -5206,37 +6546,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -5461,7 +6801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE23"/>
   <sheetViews>
@@ -5480,77 +6820,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="59"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="60"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -5814,36 +7154,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -6036,36 +7376,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">
@@ -6259,12 +7599,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
@@ -6279,78 +7619,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="59"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="66"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="60"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="51">
         <v>1</v>
       </c>
@@ -6621,37 +7961,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="69"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -6873,37 +8213,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="69"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -7182,16 +8522,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="Y16" sqref="Y16"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7202,76 +8542,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="59"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="60"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="52">
         <v>1</v>
       </c>
@@ -7484,7 +8824,7 @@
         <v>191</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L5" s="30" t="s">
         <v>194</v>
@@ -7518,49 +8858,57 @@
         <v>202</v>
       </c>
       <c r="Y5" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z5" s="30"/>
+        <v>211</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
+      <c r="AC5" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE5" s="30" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="6" spans="1:31" s="25" customFormat="1">
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="69"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -7630,7 +8978,7 @@
       <c r="W8" s="26"/>
       <c r="X8" s="26"/>
       <c r="Y8" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
@@ -7687,14 +9035,18 @@
       </c>
       <c r="X9" s="26"/>
       <c r="Y9" s="24" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
       <c r="AB9" s="24"/>
       <c r="AC9" s="24"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="24"/>
+      <c r="AD9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE9" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="32" t="s">
@@ -7770,36 +9122,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="69"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">
@@ -7956,8 +9308,12 @@
       <c r="AA16" s="26"/>
       <c r="AB16" s="26"/>
       <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
+      <c r="AD16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE16" s="26" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="39" t="s">
@@ -8050,163 +9406,4 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="7" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1"/>
-      <c r="B1" s="15">
-        <v>40714</v>
-      </c>
-      <c r="C1" s="42">
-        <v>40715</v>
-      </c>
-      <c r="D1" s="42">
-        <v>40716</v>
-      </c>
-      <c r="E1" s="42">
-        <v>40717</v>
-      </c>
-      <c r="F1" s="42">
-        <v>40718</v>
-      </c>
-      <c r="G1" s="16">
-        <v>40719</v>
-      </c>
-      <c r="H1" s="16">
-        <v>40720</v>
-      </c>
-      <c r="I1" s="15">
-        <v>40721</v>
-      </c>
-      <c r="J1" s="19">
-        <v>40722</v>
-      </c>
-      <c r="K1" s="15">
-        <v>40723</v>
-      </c>
-      <c r="L1" s="15">
-        <v>40724</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="20"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1005" windowWidth="11700" windowHeight="6525" tabRatio="767" activeTab="9"/>
+    <workbookView xWindow="-15" yWindow="5025" windowWidth="19260" windowHeight="5085" tabRatio="767" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,13 @@
     <sheet name="CarLog11.10" sheetId="9" r:id="rId8"/>
     <sheet name="CarLog11.11" sheetId="10" r:id="rId9"/>
     <sheet name="CarLog11.12" sheetId="12" r:id="rId10"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId12"/>
+    <sheet name="CarLog12.01" sheetId="13" r:id="rId11"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet1!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet1!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -332,8 +333,45 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当日同车上下班的同事
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="230">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1203,6 +1241,34 @@
   </si>
   <si>
     <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ken/lambert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1362,7 +1428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1420,6 +1486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,7 +1564,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1642,6 +1714,12 @@
     </xf>
     <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="8" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2537,12 +2615,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:AF6"/>
+      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2553,78 +2631,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="61"/>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="68"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="62"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="56">
         <v>1</v>
       </c>
@@ -2748,7 +2826,7 @@
       <c r="J4" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="58" t="s">
         <v>78</v>
       </c>
       <c r="L4" s="54" t="s">
@@ -2769,7 +2847,7 @@
       <c r="Q4" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="58" t="s">
         <v>78</v>
       </c>
       <c r="S4" s="54" t="s">
@@ -2811,7 +2889,7 @@
       <c r="AE4" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="AF4" s="54" t="s">
+      <c r="AF4" s="53" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2877,37 +2955,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="71"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -2920,7 +2998,9 @@
       <c r="F7" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="H7" s="26" t="s">
         <v>145</v>
       </c>
@@ -2943,23 +3023,51 @@
       <c r="O7" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
+      <c r="P7" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
+      <c r="T7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="X7" s="26" t="s">
+        <v>188</v>
+      </c>
       <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="24"/>
+      <c r="AA7" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB7" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC7" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD7" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE7" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF7" s="24" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="27" t="s">
@@ -2972,7 +3080,9 @@
       <c r="F8" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="H8" s="26" t="s">
         <v>145</v>
       </c>
@@ -2992,13 +3102,25 @@
       <c r="N8" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="O8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
+      <c r="T8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="W8" s="26"/>
       <c r="X8" s="26"/>
       <c r="Y8" s="26"/>
@@ -3040,22 +3162,44 @@
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="P9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="26"/>
+      <c r="T9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="W9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="X9" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
+      <c r="AA9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB9" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
+      <c r="AD9" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE9" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="AF9" s="24"/>
     </row>
     <row r="10" spans="1:32">
@@ -3087,23 +3231,47 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
+      <c r="O10" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
+      <c r="T10" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
+      <c r="V10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="W10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="X10" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="Y10" s="26"/>
       <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
+      <c r="AA10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB10" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
+      <c r="AD10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE10" s="26" t="s">
+        <v>168</v>
+      </c>
       <c r="AF10" s="24"/>
     </row>
     <row r="11" spans="1:32" s="25" customFormat="1">
@@ -3146,37 +3314,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="71"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -3242,13 +3410,17 @@
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="P14" s="26">
+        <v>200</v>
+      </c>
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
+      <c r="V14" s="26">
+        <v>250</v>
+      </c>
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
       <c r="Y14" s="26"/>
@@ -3256,7 +3428,9 @@
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
       <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
+      <c r="AD14" s="26">
+        <v>250</v>
+      </c>
       <c r="AE14" s="26"/>
       <c r="AF14" s="24"/>
     </row>
@@ -3321,21 +3495,43 @@
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
+      <c r="P16" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>220</v>
+      </c>
       <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
+      <c r="T16" s="26" t="s">
+        <v>220</v>
+      </c>
       <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
+      <c r="V16" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="W16" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="X16" s="26" t="s">
+        <v>220</v>
+      </c>
       <c r="Y16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
+      <c r="AA16" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB16" s="26" t="s">
+        <v>220</v>
+      </c>
       <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
+      <c r="AD16" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE16" s="26" t="s">
+        <v>220</v>
+      </c>
       <c r="AF16" s="26"/>
     </row>
     <row r="17" spans="1:32">
@@ -3428,10 +3624,815 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="10.625" style="23" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="22.5">
+      <c r="A1" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="63"/>
+      <c r="B2" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="68"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="64"/>
+      <c r="B3" s="59">
+        <v>1</v>
+      </c>
+      <c r="C3" s="59">
+        <v>2</v>
+      </c>
+      <c r="D3" s="59">
+        <v>3</v>
+      </c>
+      <c r="E3" s="59">
+        <v>4</v>
+      </c>
+      <c r="F3" s="59">
+        <v>5</v>
+      </c>
+      <c r="G3" s="59">
+        <v>6</v>
+      </c>
+      <c r="H3" s="59">
+        <v>7</v>
+      </c>
+      <c r="I3" s="59">
+        <v>8</v>
+      </c>
+      <c r="J3" s="59">
+        <v>9</v>
+      </c>
+      <c r="K3" s="59">
+        <v>10</v>
+      </c>
+      <c r="L3" s="59">
+        <v>11</v>
+      </c>
+      <c r="M3" s="59">
+        <v>12</v>
+      </c>
+      <c r="N3" s="59">
+        <v>13</v>
+      </c>
+      <c r="O3" s="59">
+        <v>14</v>
+      </c>
+      <c r="P3" s="59">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>16</v>
+      </c>
+      <c r="R3" s="59">
+        <v>17</v>
+      </c>
+      <c r="S3" s="59">
+        <v>18</v>
+      </c>
+      <c r="T3" s="59">
+        <v>19</v>
+      </c>
+      <c r="U3" s="59">
+        <v>20</v>
+      </c>
+      <c r="V3" s="59">
+        <v>21</v>
+      </c>
+      <c r="W3" s="59">
+        <v>22</v>
+      </c>
+      <c r="X3" s="59">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="59">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="59">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="59">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="59">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="59">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="59">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="59">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="59">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="35"/>
+      <c r="B4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+    </row>
+    <row r="6" spans="1:32" s="25" customFormat="1">
+      <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="71"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="24"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="24"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="24"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="24"/>
+    </row>
+    <row r="11" spans="1:32" s="25" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="71"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="24"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="24"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="24"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+    </row>
+    <row r="19" spans="1:32" s="22" customFormat="1">
+      <c r="A19" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="22" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="22" customFormat="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="22" customFormat="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="B23" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="B24" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:AF2"/>
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="B12:AF12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="A11:N17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3585,7 +4586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -4976,79 +5977,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="62"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -5321,37 +6322,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -5484,37 +6485,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -5642,37 +6643,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -5940,79 +6941,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="62"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="44">
         <v>1</v>
       </c>
@@ -6289,37 +7290,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -6408,37 +7409,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -6546,37 +7547,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -6820,77 +7821,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="62"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -7154,36 +8155,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -7376,36 +8377,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">
@@ -7619,78 +8620,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="61"/>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="68"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="62"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="51">
         <v>1</v>
       </c>
@@ -7961,37 +8962,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="71"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -8213,37 +9214,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="71"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -8531,7 +9532,7 @@
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8542,76 +9543,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="61"/>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="62"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="52">
         <v>1</v>
       </c>
@@ -8879,36 +9880,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="71"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -9122,36 +10123,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="71"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5025" windowWidth="19260" windowHeight="5085" tabRatio="767" activeTab="9"/>
+    <workbookView xWindow="-15" yWindow="5025" windowWidth="19260" windowHeight="5085" tabRatio="821" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="CarLog11.11" sheetId="10" r:id="rId9"/>
     <sheet name="CarLog11.12" sheetId="12" r:id="rId10"/>
     <sheet name="CarLog12.01" sheetId="13" r:id="rId11"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId13"/>
+    <sheet name="CarLog12.02" sheetId="14" r:id="rId12"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet1!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sheet1!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -370,8 +371,45 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当日同车上下班的同事
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="235">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1273,6 +1311,26 @@
   </si>
   <si>
     <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAXI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张常松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1564,7 +1622,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1716,6 +1774,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="8" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2615,12 +2676,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2631,78 +2692,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="63"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="69"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="56">
         <v>1</v>
       </c>
@@ -2955,37 +3016,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="71"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="72"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3314,37 +3375,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="71"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="72"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -3631,7 +3692,7 @@
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3642,78 +3703,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="63"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="69"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="59">
         <v>1</v>
       </c>
@@ -3946,37 +4007,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="71"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="72"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3988,21 +4049,43 @@
       <c r="E7" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>230</v>
+      </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="J7" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
+      <c r="Q7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="U7" s="26"/>
       <c r="V7" s="30"/>
       <c r="W7" s="26"/>
@@ -4032,15 +4115,23 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="57"/>
+      <c r="L8" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="N8" s="57"/>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
       <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
+      <c r="S8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="U8" s="26"/>
       <c r="W8" s="26"/>
       <c r="X8" s="26"/>
@@ -4067,15 +4158,23 @@
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="26"/>
+      <c r="S9" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
@@ -4103,15 +4202,23 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="L10" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
+      <c r="S10" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="U10" s="26"/>
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
@@ -4165,37 +4272,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="71"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="72"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -4204,7 +4311,9 @@
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="E13" s="26" t="s">
+        <v>233</v>
+      </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -4429,10 +4538,775 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="30" width="10.625" style="23" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="22.5">
+      <c r="A1" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="64"/>
+      <c r="B2" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="65"/>
+      <c r="B3" s="60">
+        <v>1</v>
+      </c>
+      <c r="C3" s="60">
+        <v>2</v>
+      </c>
+      <c r="D3" s="60">
+        <v>3</v>
+      </c>
+      <c r="E3" s="60">
+        <v>4</v>
+      </c>
+      <c r="F3" s="60">
+        <v>5</v>
+      </c>
+      <c r="G3" s="60">
+        <v>6</v>
+      </c>
+      <c r="H3" s="60">
+        <v>7</v>
+      </c>
+      <c r="I3" s="60">
+        <v>8</v>
+      </c>
+      <c r="J3" s="60">
+        <v>9</v>
+      </c>
+      <c r="K3" s="60">
+        <v>10</v>
+      </c>
+      <c r="L3" s="60">
+        <v>11</v>
+      </c>
+      <c r="M3" s="60">
+        <v>12</v>
+      </c>
+      <c r="N3" s="60">
+        <v>13</v>
+      </c>
+      <c r="O3" s="60">
+        <v>14</v>
+      </c>
+      <c r="P3" s="60">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="60">
+        <v>16</v>
+      </c>
+      <c r="R3" s="60">
+        <v>17</v>
+      </c>
+      <c r="S3" s="60">
+        <v>18</v>
+      </c>
+      <c r="T3" s="60">
+        <v>19</v>
+      </c>
+      <c r="U3" s="60">
+        <v>20</v>
+      </c>
+      <c r="V3" s="60">
+        <v>21</v>
+      </c>
+      <c r="W3" s="60">
+        <v>22</v>
+      </c>
+      <c r="X3" s="60">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="60">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="60">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="60">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="60">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="60">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="35"/>
+      <c r="B4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="W4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+    </row>
+    <row r="6" spans="1:30" s="25" customFormat="1">
+      <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="26"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+    </row>
+    <row r="11" spans="1:30" s="25" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+    </row>
+    <row r="19" spans="1:30" s="22" customFormat="1">
+      <c r="A19" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" s="22" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="22" customFormat="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="22" customFormat="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="B23" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="B24" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B6:AD6"/>
+    <mergeCell ref="B12:AD12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M6" sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4586,12 +5460,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:C16"/>
+      <selection activeCell="M6" sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5977,79 +6851,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="63"/>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -6322,37 +7196,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -6485,37 +7359,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -6643,37 +7517,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -6941,79 +7815,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="63"/>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="44">
         <v>1</v>
       </c>
@@ -7290,37 +8164,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -7409,37 +8283,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -7547,37 +8421,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -7821,77 +8695,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="63"/>
-      <c r="B2" s="65" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -8155,36 +9029,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -8377,36 +9251,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">
@@ -8620,78 +9494,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="63"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="69"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="51">
         <v>1</v>
       </c>
@@ -8962,37 +9836,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="71"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="72"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -9214,37 +10088,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="71"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="72"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -9543,76 +10417,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="63"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="64"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="52">
         <v>1</v>
       </c>
@@ -9880,36 +10754,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="71"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="72"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -10123,36 +10997,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="71"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="72"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5025" windowWidth="19260" windowHeight="5085" tabRatio="821" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="-15" yWindow="5025" windowWidth="19260" windowHeight="5085" tabRatio="821" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="CarLog11.11" sheetId="10" r:id="rId9"/>
     <sheet name="CarLog11.12" sheetId="12" r:id="rId10"/>
     <sheet name="CarLog12.01" sheetId="13" r:id="rId11"/>
-    <sheet name="CarLog12.02" sheetId="14" r:id="rId12"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId14"/>
+    <sheet name="CarLog12.02" sheetId="15" r:id="rId12"/>
+    <sheet name="CarLog12.03" sheetId="14" r:id="rId13"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sheet1!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet1!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -105,6 +106,43 @@
             <charset val="134"/>
           </rPr>
           <t>岑村</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当日同车上下班的同事
+</t>
         </r>
       </text>
     </comment>
@@ -409,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="240">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1331,6 +1369,26 @@
   </si>
   <si>
     <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack,simon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,7 +1544,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1550,6 +1608,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,7 +1686,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1779,8 +1843,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2692,78 +2766,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="64"/>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="65"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="56">
         <v>1</v>
       </c>
@@ -3016,37 +3090,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="72"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="76"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3375,37 +3449,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="72"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="76"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -3703,78 +3777,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="64"/>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="65"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="59">
         <v>1</v>
       </c>
@@ -4007,37 +4081,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="72"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="76"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -4272,37 +4346,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="72"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="76"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -4540,12 +4614,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4556,160 +4630,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="22.5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="64"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="65"/>
-      <c r="B3" s="60">
+      <c r="A3" s="69"/>
+      <c r="B3" s="63">
         <v>1</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="63">
         <v>2</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="63">
         <v>3</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="63">
         <v>4</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="63">
         <v>5</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="63">
         <v>6</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="63">
         <v>7</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="63">
         <v>8</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="63">
         <v>9</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="63">
         <v>10</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="63">
         <v>11</v>
       </c>
-      <c r="M3" s="60">
+      <c r="M3" s="63">
         <v>12</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="63">
         <v>13</v>
       </c>
-      <c r="O3" s="60">
+      <c r="O3" s="63">
         <v>14</v>
       </c>
-      <c r="P3" s="60">
+      <c r="P3" s="63">
         <v>15</v>
       </c>
-      <c r="Q3" s="60">
+      <c r="Q3" s="63">
         <v>16</v>
       </c>
-      <c r="R3" s="60">
+      <c r="R3" s="63">
         <v>17</v>
       </c>
-      <c r="S3" s="60">
+      <c r="S3" s="63">
         <v>18</v>
       </c>
-      <c r="T3" s="60">
+      <c r="T3" s="63">
         <v>19</v>
       </c>
-      <c r="U3" s="60">
+      <c r="U3" s="63">
         <v>20</v>
       </c>
-      <c r="V3" s="60">
+      <c r="V3" s="63">
         <v>21</v>
       </c>
-      <c r="W3" s="60">
+      <c r="W3" s="63">
         <v>22</v>
       </c>
-      <c r="X3" s="60">
+      <c r="X3" s="63">
         <v>23</v>
       </c>
-      <c r="Y3" s="60">
+      <c r="Y3" s="63">
         <v>24</v>
       </c>
-      <c r="Z3" s="60">
+      <c r="Z3" s="63">
         <v>25</v>
       </c>
-      <c r="AA3" s="60">
+      <c r="AA3" s="63">
         <v>26</v>
       </c>
-      <c r="AB3" s="60">
+      <c r="AB3" s="63">
         <v>27</v>
       </c>
-      <c r="AC3" s="60">
+      <c r="AC3" s="63">
         <v>28</v>
       </c>
-      <c r="AD3" s="60">
+      <c r="AD3" s="63">
         <v>29</v>
       </c>
     </row>
@@ -4736,7 +4810,7 @@
       <c r="H4" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="32" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="53" t="s">
@@ -4808,10 +4882,10 @@
         <v>118</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
@@ -4845,35 +4919,35 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="32" t="s">
@@ -5023,7 +5097,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="26"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="26"/>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
@@ -5049,35 +5123,35 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="32" t="s">
@@ -5091,7 +5165,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="26"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
@@ -5303,6 +5377,827 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="M5" activeCellId="1" sqref="F5:H5 M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="30" width="10.625" style="23" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="22.5">
+      <c r="A1" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="69"/>
+      <c r="B3" s="63">
+        <v>1</v>
+      </c>
+      <c r="C3" s="63">
+        <v>2</v>
+      </c>
+      <c r="D3" s="63">
+        <v>3</v>
+      </c>
+      <c r="E3" s="63">
+        <v>4</v>
+      </c>
+      <c r="F3" s="63">
+        <v>5</v>
+      </c>
+      <c r="G3" s="63">
+        <v>6</v>
+      </c>
+      <c r="H3" s="63">
+        <v>7</v>
+      </c>
+      <c r="I3" s="60">
+        <v>8</v>
+      </c>
+      <c r="J3" s="60">
+        <v>9</v>
+      </c>
+      <c r="K3" s="63">
+        <v>10</v>
+      </c>
+      <c r="L3" s="63">
+        <v>11</v>
+      </c>
+      <c r="M3" s="63">
+        <v>12</v>
+      </c>
+      <c r="N3" s="63">
+        <v>13</v>
+      </c>
+      <c r="O3" s="63">
+        <v>14</v>
+      </c>
+      <c r="P3" s="63">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="63">
+        <v>16</v>
+      </c>
+      <c r="R3" s="63">
+        <v>17</v>
+      </c>
+      <c r="S3" s="63">
+        <v>18</v>
+      </c>
+      <c r="T3" s="63">
+        <v>19</v>
+      </c>
+      <c r="U3" s="63">
+        <v>20</v>
+      </c>
+      <c r="V3" s="63">
+        <v>21</v>
+      </c>
+      <c r="W3" s="63">
+        <v>22</v>
+      </c>
+      <c r="X3" s="63">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="63">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="63">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="63">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="63">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="63">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="63">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="63">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="63">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="35"/>
+      <c r="B4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" s="54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="57"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+    </row>
+    <row r="6" spans="1:32" s="25" customFormat="1">
+      <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" s="61"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+    </row>
+    <row r="11" spans="1:32" s="25" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+    </row>
+    <row r="19" spans="1:32" s="22" customFormat="1">
+      <c r="A19" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="22" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="22" customFormat="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="22" customFormat="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="B23" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="B24" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:AF2"/>
+    <mergeCell ref="B12:AF12"/>
+    <mergeCell ref="B6:AF6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5460,7 +6355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -6851,79 +7746,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="64"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="65"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -7196,37 +8091,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -7359,37 +8254,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -7517,37 +8412,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="61"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -7815,79 +8710,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="64"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="65"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="44">
         <v>1</v>
       </c>
@@ -8164,37 +9059,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -8283,37 +9178,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -8421,37 +9316,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="61"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -8695,77 +9590,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="64"/>
-      <c r="B2" s="66" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="65"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -9029,36 +9924,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -9251,36 +10146,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">
@@ -9494,78 +10389,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="64"/>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="65"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="51">
         <v>1</v>
       </c>
@@ -9836,37 +10731,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="72"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="76"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -10088,37 +10983,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="72"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="76"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -10417,76 +11312,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="64"/>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="65"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="52">
         <v>1</v>
       </c>
@@ -10754,36 +11649,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="72"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="76"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -10997,36 +11892,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="72"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="76"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -5384,7 +5384,7 @@
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="M5" activeCellId="1" sqref="F5:H5 M5"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5025" windowWidth="19260" windowHeight="5085" tabRatio="821" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="-15" yWindow="5025" windowWidth="19260" windowHeight="5085" tabRatio="821" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,13 @@
     <sheet name="CarLog12.01" sheetId="13" r:id="rId11"/>
     <sheet name="CarLog12.02" sheetId="15" r:id="rId12"/>
     <sheet name="CarLog12.03" sheetId="14" r:id="rId13"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId15"/>
+    <sheet name="CarLog12.06" sheetId="16" r:id="rId14"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet1!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Sheet1!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -114,6 +115,43 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当日同车上下班的同事
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -447,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="242">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1389,6 +1427,14 @@
   </si>
   <si>
     <t>Fri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1686,7 +1732,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1855,6 +1901,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2766,78 +2815,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="68"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="74"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="56">
         <v>1</v>
       </c>
@@ -3090,37 +3139,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="77"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3449,37 +3498,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="76"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="77"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -3777,78 +3826,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="68"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="74"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="59">
         <v>1</v>
       </c>
@@ -4081,37 +4130,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="77"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -4346,37 +4395,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="76"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="77"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -4630,75 +4679,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="22.5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="63">
         <v>1</v>
       </c>
@@ -4919,35 +4968,35 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="32" t="s">
@@ -5123,35 +5172,35 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="32" t="s">
@@ -5379,7 +5428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
@@ -5395,77 +5444,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="63">
         <v>1</v>
       </c>
@@ -5712,37 +5761,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -5932,37 +5981,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -6198,6 +6247,837 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="30" width="10.625" style="23" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="22.5">
+      <c r="A1" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="70"/>
+      <c r="B3" s="65">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65">
+        <v>2</v>
+      </c>
+      <c r="D3" s="65">
+        <v>3</v>
+      </c>
+      <c r="E3" s="65">
+        <v>4</v>
+      </c>
+      <c r="F3" s="65">
+        <v>5</v>
+      </c>
+      <c r="G3" s="65">
+        <v>6</v>
+      </c>
+      <c r="H3" s="65">
+        <v>7</v>
+      </c>
+      <c r="I3" s="65">
+        <v>8</v>
+      </c>
+      <c r="J3" s="65">
+        <v>9</v>
+      </c>
+      <c r="K3" s="65">
+        <v>10</v>
+      </c>
+      <c r="L3" s="65">
+        <v>11</v>
+      </c>
+      <c r="M3" s="65">
+        <v>12</v>
+      </c>
+      <c r="N3" s="65">
+        <v>13</v>
+      </c>
+      <c r="O3" s="65">
+        <v>14</v>
+      </c>
+      <c r="P3" s="65">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="65">
+        <v>16</v>
+      </c>
+      <c r="R3" s="65">
+        <v>17</v>
+      </c>
+      <c r="S3" s="65">
+        <v>18</v>
+      </c>
+      <c r="T3" s="65">
+        <v>19</v>
+      </c>
+      <c r="U3" s="65">
+        <v>20</v>
+      </c>
+      <c r="V3" s="65">
+        <v>21</v>
+      </c>
+      <c r="W3" s="65">
+        <v>22</v>
+      </c>
+      <c r="X3" s="65">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="65">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="65">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="65">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="65">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="65">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="65">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="35"/>
+      <c r="B4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE4" s="54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="24"/>
+    </row>
+    <row r="6" spans="1:31" s="25" customFormat="1">
+      <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="24"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="24"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="24"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="24"/>
+    </row>
+    <row r="11" spans="1:31" s="25" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="24"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="24"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="24"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="24"/>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+    </row>
+    <row r="19" spans="1:31" s="22" customFormat="1">
+      <c r="A19" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="22" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="22" customFormat="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="22" customFormat="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="B23" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="B24" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="B6:AE6"/>
+    <mergeCell ref="B12:AE12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6355,7 +7235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -7746,79 +8626,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -8091,37 +8971,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -8254,37 +9134,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -8412,37 +9292,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -8710,79 +9590,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="44">
         <v>1</v>
       </c>
@@ -9059,37 +9939,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -9178,37 +10058,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -9316,37 +10196,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -9590,77 +10470,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -9924,36 +10804,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -10146,36 +11026,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="65"/>
-      <c r="AE12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">
@@ -10389,78 +11269,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="68"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="74"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="51">
         <v>1</v>
       </c>
@@ -10731,37 +11611,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="77"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -10983,37 +11863,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="76"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="77"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -11312,76 +12192,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="68"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="74"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="52">
         <v>1</v>
       </c>
@@ -11649,36 +12529,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="76"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="77"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -11892,36 +12772,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="76"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="77"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="242">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6250,11 +6250,11 @@
   <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6562,7 +6562,9 @@
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="S5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
       <c r="V5" s="26"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5025" windowWidth="19260" windowHeight="5085" tabRatio="821" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="-15" yWindow="5025" windowWidth="19260" windowHeight="5085" tabRatio="821" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="CarLog12.02" sheetId="15" r:id="rId12"/>
     <sheet name="CarLog12.03" sheetId="14" r:id="rId13"/>
     <sheet name="CarLog12.06" sheetId="16" r:id="rId14"/>
-    <sheet name="CarLog" sheetId="3" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId16"/>
+    <sheet name="CarLog12.07" sheetId="17" r:id="rId15"/>
+    <sheet name="CarLog" sheetId="3" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">June!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Sheet1!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Sheet1!$A$1:$C$16</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -152,6 +153,43 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当日同车上下班的同事
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -485,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="245">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1435,6 +1473,18 @@
   </si>
   <si>
     <t>SIMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VESTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1732,7 +1782,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1901,6 +1951,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2815,78 +2871,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="69"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="76"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="70"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="56">
         <v>1</v>
       </c>
@@ -3139,37 +3195,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="79"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -3498,37 +3554,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="79"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -3826,78 +3882,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="69"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="76"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="70"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="59">
         <v>1</v>
       </c>
@@ -4130,37 +4186,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="79"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -4395,37 +4451,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="79"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -4679,75 +4735,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="70"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="63">
         <v>1</v>
       </c>
@@ -4968,35 +5024,35 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="32" t="s">
@@ -5172,35 +5228,35 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="32" t="s">
@@ -5444,77 +5500,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="70"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="63">
         <v>1</v>
       </c>
@@ -5761,37 +5817,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -5981,37 +6037,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -6249,12 +6305,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6265,76 +6321,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="70"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="65">
         <v>1</v>
       </c>
@@ -6549,10 +6605,10 @@
         <v>240</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="O5" s="30" t="s">
         <v>145</v>
@@ -6565,53 +6621,71 @@
       <c r="S5" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="30"/>
+      <c r="T5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
+      <c r="Z5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="AE5" s="24"/>
     </row>
     <row r="6" spans="1:31" s="25" customFormat="1">
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -6792,36 +6866,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">
@@ -7080,6 +7154,821 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="10.625" style="23" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="22.5">
+      <c r="A1" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="66"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="71"/>
+      <c r="B2" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="72"/>
+      <c r="B3" s="67">
+        <v>1</v>
+      </c>
+      <c r="C3" s="67">
+        <v>2</v>
+      </c>
+      <c r="D3" s="67">
+        <v>3</v>
+      </c>
+      <c r="E3" s="67">
+        <v>4</v>
+      </c>
+      <c r="F3" s="67">
+        <v>5</v>
+      </c>
+      <c r="G3" s="67">
+        <v>6</v>
+      </c>
+      <c r="H3" s="67">
+        <v>7</v>
+      </c>
+      <c r="I3" s="67">
+        <v>8</v>
+      </c>
+      <c r="J3" s="67">
+        <v>9</v>
+      </c>
+      <c r="K3" s="67">
+        <v>10</v>
+      </c>
+      <c r="L3" s="67">
+        <v>11</v>
+      </c>
+      <c r="M3" s="67">
+        <v>12</v>
+      </c>
+      <c r="N3" s="67">
+        <v>13</v>
+      </c>
+      <c r="O3" s="67">
+        <v>14</v>
+      </c>
+      <c r="P3" s="67">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="67">
+        <v>16</v>
+      </c>
+      <c r="R3" s="67">
+        <v>17</v>
+      </c>
+      <c r="S3" s="67">
+        <v>18</v>
+      </c>
+      <c r="T3" s="67">
+        <v>19</v>
+      </c>
+      <c r="U3" s="67">
+        <v>20</v>
+      </c>
+      <c r="V3" s="67">
+        <v>21</v>
+      </c>
+      <c r="W3" s="67">
+        <v>22</v>
+      </c>
+      <c r="X3" s="67">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="67">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="67">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="67">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="67">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="67">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="67">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="67">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="35"/>
+      <c r="B4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="U4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA4" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC4" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD4" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="J5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="24"/>
+    </row>
+    <row r="6" spans="1:32" s="25" customFormat="1">
+      <c r="A6" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="24"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="24"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="24"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="24"/>
+    </row>
+    <row r="11" spans="1:32" s="25" customFormat="1">
+      <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="24"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="24"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="24"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="24"/>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+    </row>
+    <row r="19" spans="1:32" s="22" customFormat="1">
+      <c r="A19" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="22" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="22" customFormat="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="22" customFormat="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="B23" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="B24" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:AF2"/>
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="B12:AF12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7237,7 +8126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -8628,79 +9517,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="70"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="31">
         <v>1</v>
       </c>
@@ -8973,37 +9862,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -9136,37 +10025,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -9294,37 +10183,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -9592,79 +10481,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="70"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="44">
         <v>1</v>
       </c>
@@ -9941,37 +10830,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -10060,37 +10949,37 @@
       <c r="A9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="32" t="s">
@@ -10198,37 +11087,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -10472,77 +11361,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="70"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="49">
         <v>1</v>
       </c>
@@ -10806,36 +11695,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -11028,36 +11917,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">
@@ -11271,78 +12160,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="69"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="76"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="70"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="51">
         <v>1</v>
       </c>
@@ -11613,37 +12502,37 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="79"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="32" t="s">
@@ -11865,37 +12754,37 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="79"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="32" t="s">
@@ -12194,76 +13083,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="22.5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="69"/>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="76"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="70"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="52">
         <v>1</v>
       </c>
@@ -12531,36 +13420,36 @@
       <c r="A6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="79"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="32" t="s">
@@ -12774,36 +13663,36 @@
       <c r="A12" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="79"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="32" t="s">

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="246">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1485,6 +1485,10 @@
   </si>
   <si>
     <t>OFFICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VESTA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7157,11 +7161,11 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7461,16 +7465,32 @@
       <c r="K5" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="L5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
+      <c r="Q5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>145</v>
+      </c>
       <c r="V5" s="26"/>
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>

--- a/history/schedule.xlsx
+++ b/history/schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="5025" windowWidth="19260" windowHeight="5085" tabRatio="821" firstSheet="5" activeTab="14"/>
@@ -1497,8 +1497,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1796,22 +1796,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2859,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
@@ -3870,7 +3870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
@@ -4723,7 +4723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
@@ -5488,7 +5488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
@@ -6309,7 +6309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
@@ -7160,7 +7160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G35" sqref="G35"/>
       <selection pane="topRight" activeCell="G35" sqref="G35"/>
